--- a/spreadsheet/macrofree/sql_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/sql_checklist.ja.xlsx
@@ -1119,7 +1119,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>メモリ最適化された仮想マシン サイズを使用して、SQL Server ワークロードのパフォーマンスを最大にします。</t>
+          <t>メモリ最適化された仮想マシン サイズを使用して、SQL Server ワークロードのパフォーマンスを最大限に高めます。</t>
         </is>
       </c>
       <c r="D9" s="21" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
-          <t>これにより、ディスク レベルでより専用のディスク IOPS とスループットが提供され、各ディスクの Azure ディスク ホスト キャッシュ設定をそのデータ型に最適な設定に構成することもできます。</t>
+          <t>これにより、ディスク レベルでより専用のディスク IOPS とスループットが提供され、各ディスクの Azure ディスク ホストのキャッシュ設定をそのデータ型に最適な設定に構成することもできます。</t>
         </is>
       </c>
       <c r="E11" s="21" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="D12" s="21" t="inlineStr">
         <is>
-          <t>Premium SSD は、パフォーマンスの向上と待機時間の短縮を実現するために、SQL Server の最小要件として常に推奨されます。P30 と P40 は、ディスク 4 TiB 以上 (P50 以上) のディスク キャッシュではサポートされておらず、最適な価格対性能比を提供するためです</t>
+          <t>Premium SSD は、パフォーマンスの向上と待機時間の短縮を実現するために、SQL Server の最小要件として常に推奨されます。P30 と P40 は、ディスク 4 TiB 以上 (P50 以上) ではディスク キャッシュがサポートされておらず、最適な価格対性能比を提供するためです</t>
         </is>
       </c>
       <c r="E12" s="21" t="inlineStr">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>ログ ファイルには、主に書き込み負荷の高い操作があります。そのため、ReadOnly キャッシュの恩恵を受けません。したがって、価格、パフォーマンス、容量を評価し、適切なストレージディスクを選択してください。</t>
+          <t>ログ ファイルには、主に書き込み負荷の高い操作があります。したがって、ReadOnly キャッシュの恩恵を受けません。したがって、価格、パフォーマンス、容量を評価し、適切なストレージディスクを選択してください。</t>
         </is>
       </c>
       <c r="E13" s="21" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="D18" s="21" t="inlineStr">
         <is>
-          <t>SQL Server は、エクステントを使用してデータを格納します。これらのサイズは 64 KB です。したがって、SQL Server マシンでは、SQL データベース ファイルをホストするための NTFS アロケーション ユニット サイズは 64 KB である必要があります。</t>
+          <t>SQL Server は、エクステントを使用してデータを格納します。これらのサイズは 64 KB です。したがって、SQL Server マシンでは、SQL データベース ファイルをホストするための NTFS アロケーション ユニット サイズは 64 KB にする必要があります。</t>
         </is>
       </c>
       <c r="E18" s="21" t="inlineStr">
@@ -1769,7 +1769,7 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>クラスターをアグレッシブでないパラメーターに変更して、一時的なネットワーク障害や Azure プラットフォームのメンテナンスによる予期しない停止を回避します。(FCIまたはAGを実装している場合)</t>
+          <t>クラスターをあまり積極的でないパラメーターに変更して、一時的なネットワーク障害や Azure プラットフォームのメンテナンスによる予期しない停止を回避します。(FCIまたはAGを実装している場合)</t>
         </is>
       </c>
       <c r="D22" s="21" t="inlineStr">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>仮想ネットワーク名 (VNN) と Azure Load Balancer を使用して HADR ソリューションに接続する場合は、クラスターが 1 つのサブネットにしかまたがっていない場合でも、接続文字列で MultiSubnetFailover = true を指定します。(FCIまたはAGを実装している場合)</t>
+          <t>仮想ネットワーク名 (VNN) と Azure Load Balancer を使用して HADR ソリューションに接続する場合は、クラスターが 1 つのサブネットにまたがる場合でも、接続文字列で MultiSubnetFailover = true を指定します。(FCIまたはAGを実装している場合)</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
@@ -1924,7 +1924,7 @@
       </c>
       <c r="D25" s="21" t="inlineStr">
         <is>
-          <t>SQL Server、Azure SQL Database、Azure SQL Managed Instance では、行ストア テーブルとインデックスの行とページの圧縮がサポートされており、列ストア テーブルとインデックスの列ストアと列ストアのアーカイブ圧縮がサポートされています。</t>
+          <t>SQL Server、Azure SQL Database、Azure SQL Managed Instance では、行ストア テーブルとインデックスの行とページの圧縮がサポートされ、列ストア テーブルとインデックスの列ストアと列ストア アーカイブの圧縮がサポートされています。</t>
         </is>
       </c>
       <c r="E25" s="21" t="inlineStr">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="D26" s="21" t="inlineStr">
         <is>
-          <t>既定では、データ ファイルとログ ファイルは、以前に削除されたファイルからディスクに残っている既存のデータを上書きするように初期化されます。データ ファイルとログ ファイルは、最初にファイルをゼロにする (ゼロで埋める) ことによって初期化されます。SQL Server では、データ ファイルの場合のみ、ファイルの瞬時初期化 (IFI) を使用すると、使用済みのディスク領域をゼロで埋めることなく再利用されるため、前述のファイル操作をより高速に実行できます。代わりに、新しいデータがファイルに書き込まれると、ディスクの内容が上書きされます。</t>
+          <t>既定では、データ ファイルとログ ファイルは、以前に削除されたファイルからディスクに残っている既存のデータを上書きするように初期化されます。データ・ファイルとログ・ファイルは、まずファイルをゼロにする(ゼロで埋める)ことによって初期化されます。SQL Server では、データ ファイルの場合のみ、ファイルの瞬時初期化 (IFI) を使用すると、使用済みのディスク領域をゼロで埋めることなく再利用されるため、前述のファイル操作をより高速に実行できます。代わりに、新しいデータがファイルに書き込まれると、ディスクの内容が上書きされます。</t>
         </is>
       </c>
       <c r="E26" s="21" t="inlineStr">
@@ -2314,7 +2314,7 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>SQL Server エージェント ジョブをスケジュールして、DBCC CHECKDB、インデックスの再編成、インデックスの再構築、および統計の更新ジョブを実行します。</t>
+          <t>DBCC CHECKDB、インデックスの再編成、インデックスの再構築、および統計の更新ジョブを実行するように SQL Server エージェント ジョブをスケジュールします。</t>
         </is>
       </c>
       <c r="D33" s="21" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="D37" s="21" t="inlineStr">
         <is>
-          <t>SQL Server IaaS Agent 拡張機能 (SqlIaasExtension) は、Azure Windows 仮想マシン (VM) 上の SQL Server 上で実行され、管理タスクを自動化します。</t>
+          <t>SQL Server IaaS Agent 拡張機能 (SqlIaasExtension) は、Azure Windows Virtual Machines (VM) 上の SQL Server 上で実行され、管理タスクを自動化します。</t>
         </is>
       </c>
       <c r="E37" s="21" t="inlineStr">
@@ -3113,7 +3113,7 @@
       </c>
       <c r="D48" s="21" t="inlineStr">
         <is>
-          <t>サブネット式の出力よりも少ない数の IP アドレスを持つサブネットにマネージド インスタンスをデプロイすることは可能ですが、代わりにより大きなサブネットを使用することを常に検討してください。より大きなサブネットを使用すると、サブネット内に追加のインスタンスを作成できない、既存のインスタンスをスケーリングできないなど、IP アドレスの不足に起因する将来の問題を回避できます。</t>
+          <t>サブネットの数式の出力よりも少ない数の IP アドレスを持つサブネットにマネージド インスタンスをデプロイすることは可能ですが、代わりにより大きなサブネットを使用することを常に検討してください。より大きなサブネットを使用すると、サブネット内に追加のインスタンスを作成できない、既存のインスタンスをスケーリングできないなど、IP アドレスの不足に起因する将来の問題を回避できます。</t>
         </is>
       </c>
       <c r="E48" s="21" t="inlineStr">
@@ -3221,7 +3221,7 @@
       </c>
       <c r="D50" s="21" t="inlineStr">
         <is>
-          <t>自動フェールオーバー グループ機能を使用すると、マネージド インスタンス内のユーザー データベースから別の Azure リージョンのマネージド インスタンスへのレプリケーションとフェールオーバーを管理できます。自動フェールオーバー グループは、geo レプリケートされたデータベースの大規模なデプロイと管理を簡略化するように設計されています。</t>
+          <t>自動フェールオーバー グループ機能を使用すると、マネージド インスタンス内のユーザー データベースのレプリケーションと、別の Azure リージョン内のマネージド インスタンスへのフェールオーバーを管理できます。自動フェールオーバー グループは、geo レプリケートされたデータベースの大規模なデプロイと管理を簡略化するように設計されています。</t>
         </is>
       </c>
       <c r="E50" s="21" t="inlineStr">
@@ -3535,7 +3535,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>TDE 対応データベースの場合、データベースを復元する前に、オンプレミスまたは Azure VM SQL Server の対応する証明書を移行する必要があります</t>
+          <t>TDE 対応データベースの場合、データベースを復元する前に、オンプレミスまたは Azure VM SQL Server からの対応する証明書を移行する必要があります</t>
         </is>
       </c>
       <c r="D56" s="21" t="inlineStr">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="D58" s="21" t="inlineStr">
         <is>
-          <t>ソースからターゲットにデータの変更を継続的にレプリケート/同期する移行オプションを使用する場合、ソース データとスキーマが変更され、ターゲットからドリフトする可能性があります。データ同期中に、移行プロセス中にソース上のすべての変更がキャプチャされ、ターゲットに適用されていることを確認します。</t>
+          <t>ソースからターゲットにデータの変更を継続的にレプリケート/同期する移行オプションを使用する場合、ソース データとスキーマが変更され、ターゲットからずれる可能性があります。データ同期中に、移行プロセス中にソース上のすべての変更がキャプチャされ、ターゲットに適用されていることを確認します。</t>
         </is>
       </c>
       <c r="E58" s="21" t="inlineStr">
@@ -3786,7 +3786,7 @@
       </c>
       <c r="D61" s="21" t="inlineStr">
         <is>
-          <t>運用環境にデプロイする前に、アプリケーションがフェールオーバーの回復性を備えていることを確認すると、運用環境でのアプリケーション障害のリスクを軽減し、顧客のアプリケーションの可用性に貢献します。</t>
+          <t>運用環境にデプロイする前に、アプリケーションのフェールオーバー回復性を確保することで、運用環境でのアプリケーション障害のリスクを軽減し、顧客のアプリケーションの可用性に貢献します。</t>
         </is>
       </c>
       <c r="E61" s="21" t="inlineStr">
@@ -3997,7 +3997,7 @@
       </c>
       <c r="D65" s="21" t="inlineStr">
         <is>
-          <t>長期保有 (LTR) 機能を使用すると、指定した SQL Database と SQL Managed Instance の完全バックアップを、最大 10 年間、冗長性が構成された状態で Azure Blob Storage に格納できます。</t>
+          <t>長期保有 (LTR) 機能を使用すると、指定した SQL Database と SQL Managed Instance の完全バックアップを、冗長性が構成された状態で最大 10 年間 Azure Blob Storage に格納できます。</t>
         </is>
       </c>
       <c r="E65" s="21" t="inlineStr">
